--- a/test.xlsx
+++ b/test.xlsx
@@ -534,35 +534,37 @@
           <t>San Diego, California, United States</t>
         </is>
       </c>
-      <c r="F3" s="12" t="inlineStr">
+      <c r="F3" s="12" t="n"/>
+      <c r="G3" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - Position:
-Warehouse Operations Specialist
-    - Company:
-Amazon Full-time
-    - Duration:
-6 mos
-    - URL:
-https://tinyurl.com/y2kbkhlv</t>
+          <t xml:space="preserve"> - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Senior Product Manager
+    - Company: CLARA analytics
+    - Duration: 2 yrs 6 mos
+    - URL: https://tinyurl.com/y5hzjxs3
+ - Position: Product Manager
+    - Company: Autodesk
+    - Duration: 2 yrs 9 mos
+    - URL: https://tinyurl.com/y9xtrd7b
+ - Position: Product/Internal Strategy Intern – Customer Experience
+    - Company: Verizon Wireless
+    - Duration: 2 mos
+    - URL: https://tinyurl.com/y5gkawv8
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Global Controllership Intern
+    - Company: GE
+    - Duration: 7 mos
+    - URL: https://tinyurl.com/y2jjde2l
+</t>
         </is>
       </c>
-      <c r="G3" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - Institution:
-Trent College
-    - Degree:
-No Info Found for: Education Degree
-    - Duration:
-No Info Found for: Duration of Education
-    - URL:
-https://tinyurl.com/y2ckw7a7</t>
-        </is>
-      </c>
-      <c r="H3" s="12" t="inlineStr">
-        <is>
-          <t>https://tinyurl.com/yy6wvcmz</t>
-        </is>
-      </c>
+      <c r="H3" s="12" t="inlineStr"/>
       <c r="I3" s="12" t="n"/>
       <c r="J3" s="12" t="n"/>
     </row>
@@ -588,33 +590,111 @@
           <t>San Francisco, California, United States</t>
         </is>
       </c>
-      <c r="F4" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - Position:
-Warehouse Operations Specialist
-    - Company:
-Amazon Full-time
-    - Duration:
-6 mos
-    - URL:
-https://tinyurl.com/y2kbkhlv</t>
-        </is>
-      </c>
+      <c r="F4" s="12" t="n"/>
       <c r="G4" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - Institution:
-Trent College
-    - Degree:
-No Info Found for: Education Degree
-    - Duration:
-No Info Found for: Duration of Education
-    - URL:
-https://tinyurl.com/y2ckw7a7</t>
+          <t xml:space="preserve"> - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Senior Product Manager
+    - Company: CLARA analytics
+    - Duration: 2 yrs 6 mos
+    - URL: https://tinyurl.com/y5hzjxs3
+ - Position: Product Manager
+    - Company: Autodesk
+    - Duration: 2 yrs 9 mos
+    - URL: https://tinyurl.com/y9xtrd7b
+ - Position: Product/Internal Strategy Intern – Customer Experience
+    - Company: Verizon Wireless
+    - Duration: 2 mos
+    - URL: https://tinyurl.com/y5gkawv8
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Global Controllership Intern
+    - Company: GE
+    - Duration: 7 mos
+    - URL: https://tinyurl.com/y2jjde2l
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Senior Product Manager
+    - Company: CLARA analytics
+    - Duration: 2 yrs 6 mos
+    - URL: https://tinyurl.com/y5hzjxs3
+ - Position: Product Manager
+    - Company: Autodesk
+    - Duration: 2 yrs 9 mos
+    - URL: https://tinyurl.com/y9xtrd7b
+ - Position: Product/Internal Strategy Intern – Customer Experience
+    - Company: Verizon Wireless
+    - Duration: 2 mos
+    - URL: https://tinyurl.com/y5gkawv8
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Global Controllership Intern
+    - Company: GE
+    - Duration: 7 mos
+    - URL: https://tinyurl.com/y2jjde2l
+ - Position: Sales And Marketing Specialist
+    - Company: Samsung India Full-time
+    - Duration: 2 yrs 3 mos
+    - URL: https://tinyurl.com/y3exqstm
+ - Position: Deputy Manager
+    - Company: Reliance Digital Retail Ltd. Full-time
+    - Duration: 11 yrs 5 mos
+    - URL: https://tinyurl.com/y22ehd28
+ - Position: Warehouse Operations Specialist
+    - Company: Amazon Full-time
+    - Duration: 6 mos
+    - URL: https://tinyurl.com/y45yyh3r
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Senior Product Manager
+    - Company: CLARA analytics
+    - Duration: 2 yrs 6 mos
+    - URL: https://tinyurl.com/y5hzjxs3
+ - Position: Product Manager
+    - Company: Autodesk
+    - Duration: 2 yrs 9 mos
+    - URL: https://tinyurl.com/y9xtrd7b
+</t>
         </is>
       </c>
       <c r="H4" s="12" t="inlineStr">
         <is>
-          <t>https://tinyurl.com/y6avls6k</t>
+          <t xml:space="preserve">
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Senior Product Manager
+    - Company: CLARA analytics
+    - Duration: 2 yrs 6 mos
+    - URL: https://tinyurl.com/y5hzjxs3
+ - Position: Product Manager
+    - Company: Autodesk
+    - Duration: 2 yrs 9 mos
+    - URL: https://tinyurl.com/y9xtrd7b
+ - Position: Product/Internal Strategy Intern – Customer Experience
+    - Company: Verizon Wireless
+    - Duration: 2 mos
+    - URL: https://tinyurl.com/y5gkawv8
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Global Controllership Intern
+    - Company: GE
+    - Duration: 7 mos
+    - URL: https://tinyurl.com/y2jjde2l</t>
         </is>
       </c>
       <c r="I4" s="12" t="n"/>
@@ -642,33 +722,231 @@
           <t>Kolkata, West Bengal, India</t>
         </is>
       </c>
-      <c r="F5" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - Position:
-Warehouse Operations Specialist
-    - Company:
-Amazon Full-time
-    - Duration:
-6 mos
-    - URL:
-https://tinyurl.com/y2kbkhlv</t>
-        </is>
-      </c>
+      <c r="F5" s="12" t="n"/>
       <c r="G5" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - Institution:
-Trent College
-    - Degree:
-No Info Found for: Education Degree
-    - Duration:
-No Info Found for: Duration of Education
-    - URL:
-https://tinyurl.com/y2ckw7a7</t>
+          <t xml:space="preserve"> - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Senior Product Manager
+    - Company: CLARA analytics
+    - Duration: 2 yrs 6 mos
+    - URL: https://tinyurl.com/y5hzjxs3
+ - Position: Product Manager
+    - Company: Autodesk
+    - Duration: 2 yrs 9 mos
+    - URL: https://tinyurl.com/y9xtrd7b
+ - Position: Product/Internal Strategy Intern – Customer Experience
+    - Company: Verizon Wireless
+    - Duration: 2 mos
+    - URL: https://tinyurl.com/y5gkawv8
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Global Controllership Intern
+    - Company: GE
+    - Duration: 7 mos
+    - URL: https://tinyurl.com/y2jjde2l
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Senior Product Manager
+    - Company: CLARA analytics
+    - Duration: 2 yrs 6 mos
+    - URL: https://tinyurl.com/y5hzjxs3
+ - Position: Product Manager
+    - Company: Autodesk
+    - Duration: 2 yrs 9 mos
+    - URL: https://tinyurl.com/y9xtrd7b
+ - Position: Product/Internal Strategy Intern – Customer Experience
+    - Company: Verizon Wireless
+    - Duration: 2 mos
+    - URL: https://tinyurl.com/y5gkawv8
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Global Controllership Intern
+    - Company: GE
+    - Duration: 7 mos
+    - URL: https://tinyurl.com/y2jjde2l
+ - Position: Sales And Marketing Specialist
+    - Company: Samsung India Full-time
+    - Duration: 2 yrs 3 mos
+    - URL: https://tinyurl.com/y3exqstm
+ - Position: Deputy Manager
+    - Company: Reliance Digital Retail Ltd. Full-time
+    - Duration: 11 yrs 5 mos
+    - URL: https://tinyurl.com/y22ehd28
+ - Position: Warehouse Operations Specialist
+    - Company: Amazon Full-time
+    - Duration: 6 mos
+    - URL: https://tinyurl.com/y45yyh3r
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Senior Product Manager
+    - Company: CLARA analytics
+    - Duration: 2 yrs 6 mos
+    - URL: https://tinyurl.com/y5hzjxs3
+ - Position: Product Manager
+    - Company: Autodesk
+    - Duration: 2 yrs 9 mos
+    - URL: https://tinyurl.com/y9xtrd7b
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Senior Product Manager
+    - Company: CLARA analytics
+    - Duration: 2 yrs 6 mos
+    - URL: https://tinyurl.com/y5hzjxs3
+ - Position: Product Manager
+    - Company: Autodesk
+    - Duration: 2 yrs 9 mos
+    - URL: https://tinyurl.com/y9xtrd7b
+ - Position: Product/Internal Strategy Intern – Customer Experience
+    - Company: Verizon Wireless
+    - Duration: 2 mos
+    - URL: https://tinyurl.com/y5gkawv8
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Global Controllership Intern
+    - Company: GE
+    - Duration: 7 mos
+    - URL: https://tinyurl.com/y2jjde2l
+ - Position: Sales And Marketing Specialist
+    - Company: Samsung India Full-time
+    - Duration: 2 yrs 3 mos
+    - URL: https://tinyurl.com/y3exqstm
+ - Position: Deputy Manager
+    - Company: Reliance Digital Retail Ltd. Full-time
+    - Duration: 11 yrs 5 mos
+    - URL: https://tinyurl.com/y22ehd28
+ - Position: Warehouse Operations Specialist
+    - Company: Amazon Full-time
+    - Duration: 6 mos
+    - URL: https://tinyurl.com/y45yyh3r
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Senior Product Manager
+    - Company: CLARA analytics
+    - Duration: 2 yrs 6 mos
+    - URL: https://tinyurl.com/y5hzjxs3
+ - Position: Product Manager
+    - Company: Autodesk
+    - Duration: 2 yrs 9 mos
+    - URL: https://tinyurl.com/y9xtrd7b
+ - Position: Product/Internal Strategy Intern – Customer Experience
+    - Company: Verizon Wireless
+    - Duration: 2 mos
+    - URL: https://tinyurl.com/y5gkawv8
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Global Controllership Intern
+    - Company: GE
+    - Duration: 7 mos
+    - URL: https://tinyurl.com/y2jjde2l
+ - Position: Sales And Marketing Specialist
+    - Company: Samsung India Full-time
+    - Duration: 2 yrs 3 mos
+    - URL: https://tinyurl.com/y3exqstm
+ - Position: Deputy Manager
+    - Company: Reliance Digital Retail Ltd. Full-time
+    - Duration: 11 yrs 5 mos
+    - URL: https://tinyurl.com/y22ehd28
+ - Position: Warehouse Operations Specialist
+    - Company: Amazon Full-time
+    - Duration: 6 mos
+    - URL: https://tinyurl.com/y45yyh3r
+</t>
         </is>
       </c>
       <c r="H5" s="12" t="inlineStr">
         <is>
-          <t>https://tinyurl.com/y2em5p5h</t>
+          <t xml:space="preserve">
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Senior Product Manager
+    - Company: CLARA analytics
+    - Duration: 2 yrs 6 mos
+    - URL: https://tinyurl.com/y5hzjxs3
+ - Position: Product Manager
+    - Company: Autodesk
+    - Duration: 2 yrs 9 mos
+    - URL: https://tinyurl.com/y9xtrd7b
+ - Position: Product/Internal Strategy Intern – Customer Experience
+    - Company: Verizon Wireless
+    - Duration: 2 mos
+    - URL: https://tinyurl.com/y5gkawv8
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Global Controllership Intern
+    - Company: GE
+    - Duration: 7 mos
+    - URL: https://tinyurl.com/y2jjde2l
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Senior Product Manager
+    - Company: CLARA analytics
+    - Duration: 2 yrs 6 mos
+    - URL: https://tinyurl.com/y5hzjxs3
+ - Position: Product Manager
+    - Company: Autodesk
+    - Duration: 2 yrs 9 mos
+    - URL: https://tinyurl.com/y9xtrd7b
+ - Position: Product/Internal Strategy Intern – Customer Experience
+    - Company: Verizon Wireless
+    - Duration: 2 mos
+    - URL: https://tinyurl.com/y5gkawv8
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Global Controllership Intern
+    - Company: GE
+    - Duration: 7 mos
+    - URL: https://tinyurl.com/y2jjde2l
+ - Position: Sales And Marketing Specialist
+    - Company: Samsung India Full-time
+    - Duration: 2 yrs 3 mos
+    - URL: https://tinyurl.com/y3exqstm
+ - Position: Deputy Manager
+    - Company: Reliance Digital Retail Ltd. Full-time
+    - Duration: 11 yrs 5 mos
+    - URL: https://tinyurl.com/y22ehd28
+ - Position: Warehouse Operations Specialist
+    - Company: Amazon Full-time
+    - Duration: 6 mos
+    - URL: https://tinyurl.com/y45yyh3r
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Senior Product Manager
+    - Company: CLARA analytics
+    - Duration: 2 yrs 6 mos
+    - URL: https://tinyurl.com/y5hzjxs3
+ - Position: Product Manager
+    - Company: Autodesk
+    - Duration: 2 yrs 9 mos
+    - URL: https://tinyurl.com/y9xtrd7b</t>
         </is>
       </c>
       <c r="I5" s="12" t="n"/>
@@ -696,33 +974,399 @@
           <t>Weston-on-Trent, England, United Kingdom</t>
         </is>
       </c>
-      <c r="F6" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - Position:
-Warehouse Operations Specialist
-    - Company:
-Amazon Full-time
-    - Duration:
-6 mos
-    - URL:
-https://tinyurl.com/y2kbkhlv</t>
-        </is>
-      </c>
+      <c r="F6" s="12" t="n"/>
       <c r="G6" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - Institution:
-Trent College
-    - Degree:
-No Info Found for: Education Degree
-    - Duration:
-No Info Found for: Duration of Education
-    - URL:
-https://tinyurl.com/y2ckw7a7</t>
+          <t xml:space="preserve"> - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Senior Product Manager
+    - Company: CLARA analytics
+    - Duration: 2 yrs 6 mos
+    - URL: https://tinyurl.com/y5hzjxs3
+ - Position: Product Manager
+    - Company: Autodesk
+    - Duration: 2 yrs 9 mos
+    - URL: https://tinyurl.com/y9xtrd7b
+ - Position: Product/Internal Strategy Intern – Customer Experience
+    - Company: Verizon Wireless
+    - Duration: 2 mos
+    - URL: https://tinyurl.com/y5gkawv8
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Global Controllership Intern
+    - Company: GE
+    - Duration: 7 mos
+    - URL: https://tinyurl.com/y2jjde2l
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Senior Product Manager
+    - Company: CLARA analytics
+    - Duration: 2 yrs 6 mos
+    - URL: https://tinyurl.com/y5hzjxs3
+ - Position: Product Manager
+    - Company: Autodesk
+    - Duration: 2 yrs 9 mos
+    - URL: https://tinyurl.com/y9xtrd7b
+ - Position: Product/Internal Strategy Intern – Customer Experience
+    - Company: Verizon Wireless
+    - Duration: 2 mos
+    - URL: https://tinyurl.com/y5gkawv8
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Global Controllership Intern
+    - Company: GE
+    - Duration: 7 mos
+    - URL: https://tinyurl.com/y2jjde2l
+ - Position: Sales And Marketing Specialist
+    - Company: Samsung India Full-time
+    - Duration: 2 yrs 3 mos
+    - URL: https://tinyurl.com/y3exqstm
+ - Position: Deputy Manager
+    - Company: Reliance Digital Retail Ltd. Full-time
+    - Duration: 11 yrs 5 mos
+    - URL: https://tinyurl.com/y22ehd28
+ - Position: Warehouse Operations Specialist
+    - Company: Amazon Full-time
+    - Duration: 6 mos
+    - URL: https://tinyurl.com/y45yyh3r
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Senior Product Manager
+    - Company: CLARA analytics
+    - Duration: 2 yrs 6 mos
+    - URL: https://tinyurl.com/y5hzjxs3
+ - Position: Product Manager
+    - Company: Autodesk
+    - Duration: 2 yrs 9 mos
+    - URL: https://tinyurl.com/y9xtrd7b
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Senior Product Manager
+    - Company: CLARA analytics
+    - Duration: 2 yrs 6 mos
+    - URL: https://tinyurl.com/y5hzjxs3
+ - Position: Product Manager
+    - Company: Autodesk
+    - Duration: 2 yrs 9 mos
+    - URL: https://tinyurl.com/y9xtrd7b
+ - Position: Product/Internal Strategy Intern – Customer Experience
+    - Company: Verizon Wireless
+    - Duration: 2 mos
+    - URL: https://tinyurl.com/y5gkawv8
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Global Controllership Intern
+    - Company: GE
+    - Duration: 7 mos
+    - URL: https://tinyurl.com/y2jjde2l
+ - Position: Sales And Marketing Specialist
+    - Company: Samsung India Full-time
+    - Duration: 2 yrs 3 mos
+    - URL: https://tinyurl.com/y3exqstm
+ - Position: Deputy Manager
+    - Company: Reliance Digital Retail Ltd. Full-time
+    - Duration: 11 yrs 5 mos
+    - URL: https://tinyurl.com/y22ehd28
+ - Position: Warehouse Operations Specialist
+    - Company: Amazon Full-time
+    - Duration: 6 mos
+    - URL: https://tinyurl.com/y45yyh3r
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Senior Product Manager
+    - Company: CLARA analytics
+    - Duration: 2 yrs 6 mos
+    - URL: https://tinyurl.com/y5hzjxs3
+ - Position: Product Manager
+    - Company: Autodesk
+    - Duration: 2 yrs 9 mos
+    - URL: https://tinyurl.com/y9xtrd7b
+ - Position: Product/Internal Strategy Intern – Customer Experience
+    - Company: Verizon Wireless
+    - Duration: 2 mos
+    - URL: https://tinyurl.com/y5gkawv8
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Global Controllership Intern
+    - Company: GE
+    - Duration: 7 mos
+    - URL: https://tinyurl.com/y2jjde2l
+ - Position: Sales And Marketing Specialist
+    - Company: Samsung India Full-time
+    - Duration: 2 yrs 3 mos
+    - URL: https://tinyurl.com/y3exqstm
+ - Position: Deputy Manager
+    - Company: Reliance Digital Retail Ltd. Full-time
+    - Duration: 11 yrs 5 mos
+    - URL: https://tinyurl.com/y22ehd28
+ - Position: Warehouse Operations Specialist
+    - Company: Amazon Full-time
+    - Duration: 6 mos
+    - URL: https://tinyurl.com/y45yyh3r
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Senior Product Manager
+    - Company: CLARA analytics
+    - Duration: 2 yrs 6 mos
+    - URL: https://tinyurl.com/y5hzjxs3
+ - Position: Product Manager
+    - Company: Autodesk
+    - Duration: 2 yrs 9 mos
+    - URL: https://tinyurl.com/y9xtrd7b
+ - Position: Product/Internal Strategy Intern – Customer Experience
+    - Company: Verizon Wireless
+    - Duration: 2 mos
+    - URL: https://tinyurl.com/y5gkawv8
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Global Controllership Intern
+    - Company: GE
+    - Duration: 7 mos
+    - URL: https://tinyurl.com/y2jjde2l
+ - Position: Sales And Marketing Specialist
+    - Company: Samsung India Full-time
+    - Duration: 2 yrs 3 mos
+    - URL: https://tinyurl.com/y3exqstm
+ - Position: Deputy Manager
+    - Company: Reliance Digital Retail Ltd. Full-time
+    - Duration: 11 yrs 5 mos
+    - URL: https://tinyurl.com/y22ehd28
+ - Position: Warehouse Operations Specialist
+    - Company: Amazon Full-time
+    - Duration: 6 mos
+    - URL: https://tinyurl.com/y45yyh3r
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Senior Product Manager
+    - Company: CLARA analytics
+    - Duration: 2 yrs 6 mos
+    - URL: https://tinyurl.com/y5hzjxs3
+ - Position: Product Manager
+    - Company: Autodesk
+    - Duration: 2 yrs 9 mos
+    - URL: https://tinyurl.com/y9xtrd7b
+ - Position: Product/Internal Strategy Intern – Customer Experience
+    - Company: Verizon Wireless
+    - Duration: 2 mos
+    - URL: https://tinyurl.com/y5gkawv8
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Global Controllership Intern
+    - Company: GE
+    - Duration: 7 mos
+    - URL: https://tinyurl.com/y2jjde2l
+ - Position: Sales And Marketing Specialist
+    - Company: Samsung India Full-time
+    - Duration: 2 yrs 3 mos
+    - URL: https://tinyurl.com/y3exqstm
+ - Position: Deputy Manager
+    - Company: Reliance Digital Retail Ltd. Full-time
+    - Duration: 11 yrs 5 mos
+    - URL: https://tinyurl.com/y22ehd28
+ - Position: Warehouse Operations Specialist
+    - Company: Amazon Full-time
+    - Duration: 6 mos
+    - URL: https://tinyurl.com/y45yyh3r
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Senior Product Manager
+    - Company: CLARA analytics
+    - Duration: 2 yrs 6 mos
+    - URL: https://tinyurl.com/y5hzjxs3
+ - Position: Product Manager
+    - Company: Autodesk
+    - Duration: 2 yrs 9 mos
+    - URL: https://tinyurl.com/y9xtrd7b
+ - Position: Product/Internal Strategy Intern – Customer Experience
+    - Company: Verizon Wireless
+    - Duration: 2 mos
+    - URL: https://tinyurl.com/y5gkawv8
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Global Controllership Intern
+    - Company: GE
+    - Duration: 7 mos
+    - URL: https://tinyurl.com/y2jjde2l
+</t>
         </is>
       </c>
       <c r="H6" s="12" t="inlineStr">
         <is>
-          <t>https://tinyurl.com/y2mcr2h8</t>
+          <t xml:space="preserve">
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Senior Product Manager
+    - Company: CLARA analytics
+    - Duration: 2 yrs 6 mos
+    - URL: https://tinyurl.com/y5hzjxs3
+ - Position: Product Manager
+    - Company: Autodesk
+    - Duration: 2 yrs 9 mos
+    - URL: https://tinyurl.com/y9xtrd7b
+ - Position: Product/Internal Strategy Intern – Customer Experience
+    - Company: Verizon Wireless
+    - Duration: 2 mos
+    - URL: https://tinyurl.com/y5gkawv8
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Global Controllership Intern
+    - Company: GE
+    - Duration: 7 mos
+    - URL: https://tinyurl.com/y2jjde2l
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Senior Product Manager
+    - Company: CLARA analytics
+    - Duration: 2 yrs 6 mos
+    - URL: https://tinyurl.com/y5hzjxs3
+ - Position: Product Manager
+    - Company: Autodesk
+    - Duration: 2 yrs 9 mos
+    - URL: https://tinyurl.com/y9xtrd7b
+ - Position: Product/Internal Strategy Intern – Customer Experience
+    - Company: Verizon Wireless
+    - Duration: 2 mos
+    - URL: https://tinyurl.com/y5gkawv8
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Global Controllership Intern
+    - Company: GE
+    - Duration: 7 mos
+    - URL: https://tinyurl.com/y2jjde2l
+ - Position: Sales And Marketing Specialist
+    - Company: Samsung India Full-time
+    - Duration: 2 yrs 3 mos
+    - URL: https://tinyurl.com/y3exqstm
+ - Position: Deputy Manager
+    - Company: Reliance Digital Retail Ltd. Full-time
+    - Duration: 11 yrs 5 mos
+    - URL: https://tinyurl.com/y22ehd28
+ - Position: Warehouse Operations Specialist
+    - Company: Amazon Full-time
+    - Duration: 6 mos
+    - URL: https://tinyurl.com/y45yyh3r
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Senior Product Manager
+    - Company: CLARA analytics
+    - Duration: 2 yrs 6 mos
+    - URL: https://tinyurl.com/y5hzjxs3
+ - Position: Product Manager
+    - Company: Autodesk
+    - Duration: 2 yrs 9 mos
+    - URL: https://tinyurl.com/y9xtrd7b
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Senior Product Manager
+    - Company: CLARA analytics
+    - Duration: 2 yrs 6 mos
+    - URL: https://tinyurl.com/y5hzjxs3
+ - Position: Product Manager
+    - Company: Autodesk
+    - Duration: 2 yrs 9 mos
+    - URL: https://tinyurl.com/y9xtrd7b
+ - Position: Product/Internal Strategy Intern – Customer Experience
+    - Company: Verizon Wireless
+    - Duration: 2 mos
+    - URL: https://tinyurl.com/y5gkawv8
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Global Controllership Intern
+    - Company: GE
+    - Duration: 7 mos
+    - URL: https://tinyurl.com/y2jjde2l
+ - Position: Sales And Marketing Specialist
+    - Company: Samsung India Full-time
+    - Duration: 2 yrs 3 mos
+    - URL: https://tinyurl.com/y3exqstm
+ - Position: Deputy Manager
+    - Company: Reliance Digital Retail Ltd. Full-time
+    - Duration: 11 yrs 5 mos
+    - URL: https://tinyurl.com/y22ehd28
+ - Position: Warehouse Operations Specialist
+    - Company: Amazon Full-time
+    - Duration: 6 mos
+    - URL: https://tinyurl.com/y45yyh3r
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Senior Product Manager
+    - Company: CLARA analytics
+    - Duration: 2 yrs 6 mos
+    - URL: https://tinyurl.com/y5hzjxs3
+ - Position: Product Manager
+    - Company: Autodesk
+    - Duration: 2 yrs 9 mos
+    - URL: https://tinyurl.com/y9xtrd7b
+ - Position: Product/Internal Strategy Intern – Customer Experience
+    - Company: Verizon Wireless
+    - Duration: 2 mos
+    - URL: https://tinyurl.com/y5gkawv8
+ - Position: No Info Found for: Title of Experience
+    - Company: No Info Found for: Company of Experience
+    - Duration: No Info Found for: Duration of Experience
+    - URL: https://tinyurl.com/y4d2p2wc
+ - Position: Global Controllership Intern
+    - Company: GE
+    - Duration: 7 mos
+    - URL: https://tinyurl.com/y2jjde2l
+ - Position: Sales And Marketing Specialist
+    - Company: Samsung India Full-time
+    - Duration: 2 yrs 3 mos
+    - URL: https://tinyurl.com/y3exqstm
+ - Position: Deputy Manager
+    - Company: Reliance Digital Retail Ltd. Full-time
+    - Duration: 11 yrs 5 mos
+    - URL: https://tinyurl.com/y22ehd28
+ - Position: Warehouse Operations Specialist
+    - Company: Amazon Full-time
+    - Duration: 6 mos
+    - URL: https://tinyurl.com/y45yyh3r</t>
         </is>
       </c>
       <c r="I6" s="12" t="n"/>
